--- a/Dolibar/data/input.xlsx
+++ b/Dolibar/data/input.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>UserName</t>
   </si>
@@ -27,13 +27,22 @@
     <t>HomePageTittle</t>
   </si>
   <si>
+    <t>Enter</t>
+  </si>
+  <si>
+    <t>IssueDate</t>
+  </si>
+  <si>
     <t>admin</t>
   </si>
   <si>
     <t>manager</t>
   </si>
   <si>
-    <t>Enter</t>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>abcd</t>
   </si>
 </sst>
 </file>
@@ -69,8 +78,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,7 +382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -384,7 +394,7 @@
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -394,16 +404,29 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Dolibar/data/input.xlsx
+++ b/Dolibar/data/input.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="11340" windowHeight="4095"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="16740" windowHeight="6495" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ValidLogin" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="InvalidLogin" sheetId="2" r:id="rId2"/>
+    <sheet name="CheckIssueDate" sheetId="3" r:id="rId3"/>
+    <sheet name="irctc" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>UserName</t>
   </si>
@@ -30,9 +31,6 @@
     <t>Enter</t>
   </si>
   <si>
-    <t>IssueDate</t>
-  </si>
-  <si>
     <t>admin</t>
   </si>
   <si>
@@ -43,12 +41,58 @@
   </si>
   <si>
     <t>abcd</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>damager</t>
+  </si>
+  <si>
+    <t>Issuedate</t>
+  </si>
+  <si>
+    <t>Jul 14, 2017</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>ph</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>New Delhi</t>
+  </si>
+  <si>
+    <t>: 044-25353341</t>
+  </si>
+  <si>
+    <t>: 022-22618067</t>
+  </si>
+  <si>
+    <t>: 011-23221147</t>
+  </si>
+  <si>
+    <t>City Not Found</t>
+  </si>
+  <si>
+    <t>Secunderabad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -66,7 +110,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -74,13 +118,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,16 +443,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -404,29 +466,72 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -434,26 +539,102 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.5703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.0" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Dolibar/data/input.xlsx
+++ b/Dolibar/data/input.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
   <si>
     <t>UserName</t>
   </si>
@@ -607,7 +607,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -615,7 +615,7 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -623,7 +623,7 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">

--- a/Dolibar/data/input.xlsx
+++ b/Dolibar/data/input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="16740" windowHeight="6495" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="16740" windowHeight="6495" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ValidLogin" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>UserName</t>
   </si>
@@ -71,15 +71,6 @@
   </si>
   <si>
     <t>New Delhi</t>
-  </si>
-  <si>
-    <t>: 044-25353341</t>
-  </si>
-  <si>
-    <t>: 022-22618067</t>
-  </si>
-  <si>
-    <t>: 011-23221147</t>
   </si>
   <si>
     <t>City Not Found</t>
@@ -92,7 +83,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -451,9 +441,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -543,14 +533,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -584,14 +574,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="1" max="1" width="13" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -607,7 +597,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -615,7 +605,7 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -623,15 +613,15 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
